--- a/500all/speech_level/speeches_CHRG-114hhrg95097.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95097.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="502">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,27 +52,18 @@
     <t>400285</t>
   </si>
   <si>
-    <t>Tim Murphy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Murphy. Good morning. I now convene this morning's hearing entitled, ``Federal Efforts on Mental Health: Why Greater HHS Leadership is Needed.''    In December 2013, Laura Pogliano of Maryland sent to me a poem she wrote about what it is like to raise a child with schizophrenia, as opposed to other life-threatening conditions. Here is an excerpt: ``Your child's illness is afforded the cooperation of caregivers and parents to attend to it. My child's illness is left to the right to refuse care laws, leaving him to get as sick as he can possibly be, and choose suicide, death, starvation, and continued illness with severe brain damage. Your child is never arrested or jailed because he is sick. My child is almost always arrested at some point. Your child can have any bed in any hospital in the country across the board. My child can only have a psychiatric bed. And there is an estimated deficit of 100,000 beds in this country, and the wait for one can take 6 months or longer in some places. Your child can tell people if he is sick. My child cannot, or he won't get a job or a date or an apartment. Your child can get a fun trip sponsored by an organization that assists sick children. My child can't go on any trips usually, and neither can his family.''    Despite her struggles getting Zac into care, Laura considered herself lucky, telling USA Today in November that, even though her son's mental illness has driven her to bankruptcy, sidetracked her career, and left her clinically depressed, she called herself lucky, though Zac was in and out of a hospital 13 times in 6 years. She said, even though he has fantasies that he is rich, hallucinations that he is being followed, and delusions that his mother is a robot, even though he has slept with a butcher knife under his pillow, Laura considered herself lucky that Zac wasn't in jail or homeless.    Last month, Zac was found dead in his apartment. He was 23 years old.    Laura had dreams for her son, Zac, just like every parent does. For countless parents, those dreams are tragically cut short. She searched for help and faced barriers to care. Federal laws, HIPAA laws, state laws. We have criminalized mental illness so you can't get help unless you are homicidal, suicidal, or you are well enough to understand you have problems and ask for help.    This has been a growing problem since states closed down their old asylums, as they should have, but what did the Federal Government do here to take care of this problem, to meet the needs of millions of Americans with serious mental illness and their families?    Today, we will hear how our mental health system is an abject failure for those families. Its failure is not a Democrat or Republican issue; it knows no party label, and to be honest, this spans multiple administrations, but the cost is enormous for the 10 million Americans with serious mental illness. Those with schizophrenia die 25 years earlier than the rest of the population. Forty thousand people in this country died last year from suicide, while another million attempted it in the last year. And that is a trend that is getting worse. Rates of homelessness, incarceration, unemployment, substance abuse, violence, victimization, and suicide among those with serious mental illness continue to soar. These are the very human, very tragic, and very deadly results of a very, very bad report card.    Today, thanks to a diligent year-long review of Federal efforts related to severe mental illness conducted at the bipartisan request of this committee, the Government Accountability Office has produced unassailable evidence that our mental health system is dysfunctional, disjointed, and a disaster.    No Federal agency has had a more central role in the disaster than the Department of Health and Human Services. HHS is charged with leading the Federal Government's public health efforts related to mental health, and the Substance Abuse and Mental Health Services Administration, otherwise known as SAMHSA, is required to promote coordination of programs related to mental illness throughout the Federal Government. At the onset of our investigation 2 years ago, we found it troubling that no one in the Federal Government kept track of all the Federal programs serving individuals with severe mental illness. My colleague and I, Representative Diana DeGette, asked GAO to take on this task. Following a detailed survey of eight Federal departments, including the Department of Defense, Veterans Affairs, and HHS, the GAO identified at least 112 separate Federal programs supporting individuals with severe mental illness. But most damning in this GAO report were these two principal findings. One, interagency coordination for programs supporting individuals with serious mental illness, a key function of SAMHSA, is lacking. And number two, to see whether programs specifically targeted at individuals with serious mental illness are working, agencies evaluated fewer than \\1/3\\ of them.    Now, you can't manage what you don't measure. For families who want and need treatment, HHS has given families bureaucracy, burdens and barriers instead.    We spend a lot of money in this country on mental illness, and the term evidence is thrown around like candy to prevent people from asking where is the real proof that this works. GAO offered two recommendations to correct these failings. HHS rejected them both. In each instance, HHS dismissed GAO's concerns rather than presenting evidence to dispute GAO's conclusions or volunteering improvements, or having the humility to say maybe we ought to do something about this.    When you have a mental health system that is as broken as the one we face today, with a report card so tragic, you would think that the Federal agency charged with coordinating a myriad of activities supporting individuals with severe mental illness would be open to recommendations from an experienced, nonpartisan authority, steeped in the practices of good government. HHS, in rejecting both of GAO's recommendations, and failing to identify any aspect of either recommendation worth working with or leaning from, is essentially saying there is no room for improvement, and that the agency is doing everything right at present. This is unbelievable.    The hubris shown by HHS is downright insulting and callous to the millions of families and individuals suffering under this broken system. This is a clear example of unaccountable government; one that refuses to recognize its failings even when it is presented with constructive recommendations for improvement.    We want to help in this committee, this Congress wants to help, but we can't help you if you are not even willing to admit there is a problem. We are not talking simply about wasted dollars or lost program efficiencies. We are talking about lives ruined, about dreams that are shattered, we are talking about preventable tragedies and lives lost.    I have spoken before about individuals with schizophrenia and bipolar disorders who aren't just in denial, but have the very real medical pathology that they cannot recognize they have an illness. It is called anosognosia, and it is a symptom found in stroke victims, Alzheimer patients, and persons with schizophrenia. HHS and SAMHSA are similarly in denial. You are so out of touch with understanding their own failures that it causes greater pain to millions of American families. Meanwhile, the lives of individuals with severe mental illness and their families remain in the balance.    This morning, we will hear from the author of the GAO report, as well as representatives from HHS. These include Dr. Linda Kohn, Director of Health Care at GAO; Dr. Richard Frank, Assistant Secretary for Planning and Evaluation at HHS; and Pamela Hyde, Esquire, the Administrator of SAMHSA. I thank them all for joining us this morning, and I would like to give the ranking member an opportunity to deliver remarks of her own.</t>
   </si>
   <si>
     <t>400101</t>
   </si>
   <si>
-    <t>Diana DeGette</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DeGette. Thank you, Mr. Chairman.    This is an issue that is important to both of us, and so I am really glad that you have convened this hearing as part of our continuing oversight of the Federal Government's mental health programs.    This hearing, as the chairman mentioned, follows a report by the GAO released last week, which raises questions about the more than 100 programs that generally support individuals with serious mental illness, and 30 programs that specifically target those individuals.    In particular, the GAO report raises questions about the coordination and evaluation of mental health programs, and offers recommendations to help us improve the mental health system.    I look forward to hearing our witnesses' testimony today because they are very familiar with the report and the issues that it raises, and I know that we will all be able to see further insights and context for our understanding of the Federal role in mental health care.    The report provides us with an importance chance to assess current Federal efforts to address mental health, and to see where there is room for improvement in our system. And I know we can all agree there is ample room for improvement. I want to hear about how we can ensure that Federal programs actually assist people who need them, and I also think we need to talk about how to assess the efficacy and cost of those programs.    While it is important to talk about providing services and support to those with serious mental illnesses, I think we also need to have a broader conversation about mental health in this country. According to the National Institute of Mental Health, we have nearly 44 million individuals, almost 19 percent of all U.S. adults, living with mental illness every year. And, Mr. Chairman, as we have discussed, sometimes if we can help folks in the early stages of mental illness, then that helps us begin to prevent the disintegration into very, very serious mental illness and worse.    So we have spent a lot of time on this subcommittee looking at mental health issues. We have learned about the need to appropriately target mental health funding, and the need to adequately fund mental health research. We have learned about the importance of health insurance that provides coverage for those with mental illnesses. I know, Mr. Chairman, that you want to pass mental health legislation that will make a real difference. I do too. I hope there are ways that we can work through these issues and concerns on a bipartisan basis, with the focus group that we have put together over the last year. I think we should work together to put the lessons learned in these Oversight hearings into practice.    I want to thank all of the witnesses for being here today. It is important to hear from all of you. I know we can agree there is always room for improvement, and we look forward to hearing from you about how we can do that.    With that, I will yield the balance of my time to Representative Kennedy.</t>
   </si>
   <si>
     <t>412543</t>
   </si>
   <si>
-    <t>Joseph P. Kennedy III</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kennedy. I want to thank the ranking member, and I thank the chairman for calling this important hearing. I thank the witnesses for their testimony today, and for your work on an extraordinarily important issue.    This report outlines alarming lapses in coordination at the Federal level. It raises questions about how Federal funds are being spent, and points a finger at our Nation's patchwork mental health system for failing to meet the needs of millions of Americans.    Back home, I see communities on the frontlines of a growing crisis, looking for the Federal Government for support. From substance abuse to at-risk youth, our failure to delivery dependable, affordable, and accessible mental health care is costing lives back at home.    So instead of throwing in the towel, we should see this report as a rallying cry. We must do better, devote more resources to mental illness, invest in our efforts at improving coordination, evaluation, and delivery of care. But for that to work, we need to know the scope of the problem and the range of our response. We must have the commitment of our Federal partners to take on a growing problem. Lasting mental health reforms are long overdue, and I look forward to working with all of you. And I want to thank again the chairman and ranking member for calling this important hearing.    I yield back.</t>
   </si>
   <si>
@@ -82,9 +73,6 @@
     <t>400032</t>
   </si>
   <si>
-    <t>Marsha Blackburn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Blackburn. Thank you, Mr. Chairman. And I want to welcome our witnesses, and highlight a couple of things that have already been said that I think are important to all of us on the panel.    As the chairman mentioned, 10 million adults in the U.S. had a serious mental illness during 2013. That should not be lost on us. And we also were very concerned about coordination of care, and we are going to have some questions about that. I have discussed this with some of the mental health professionals in my district who are involved in this coordination of care. And Ms. DeGette's comments are so on point with so much of what we are going to look at, the money that is spent. Your budget is a hefty budget for substance abuse and mental illness, but the lack of coordination of care, the lack of the resources meeting the needs at the local and state agencies, how this feeds through, this is something that does cause us concern. We are pleased to hear from the GAO today, and we want to look at where the recommendations the GAO has, how they have fallen on deaf ears at HHS and SAMHSA, and we are concerned about the delivery of parity, if you will, in mental illness and addressing those needs, and we are concerned with what appears to be a great deal of indifference when it comes to just spending money but not getting results.    So I will yield back my time, Mr. Chairman, or yield to whomever would like to have the time. And we look forward to hearing from our witnesses.</t>
   </si>
   <si>
@@ -94,9 +82,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. I am sorry, Mr. Pallone is here now. Mr. Pallone is recognized for 5 minutes.</t>
   </si>
   <si>
@@ -106,9 +91,6 @@
     <t>412319</t>
   </si>
   <si>
-    <t>Paul Tonko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tonko. I thank the ranking member of our Energy and Commerce Committee for yielding. And I thank you, Mr. Chair, and, Ranking Member DeGette, for holding this hearing on such a critically important topic.    As I travel around my congressional district in the capital region of New York, I hear stories daily from individuals and families as they struggle with the ravages of mental illness. Their pain is indeed real, and we must commit this Congress to doing everything within its power to ease their burdens.    In that vein, I welcome today's hearing, and the underlying GAO report that we are here to discuss as it advances the conversation on some basic good governance questions on how the Federal Government should approach programs aimed at helping individuals with serious mental illness. And while I concur with the report's conclusion that high-level coordination can be essential to identifying gaps in services and evaluating overall efforts, it is important to keep in mind that coordination is not an end unto itself. Where additional interagency coordination, whether at the programmatic or department level, can be an effective use of the Federal Government's time and money, and more importantly, is beneficial to individuals with serious mental illness, we should welcome it. Where it does not meet that test, we should not be adding additional layers of bureaucracy that divert time and resources from the people that need it the most.    As such, I look forward to hearing from our witnesses today on where coordination efforts can be built upon so that we can have an improved outcome for those living with mental illness.    And I thank you and yield back the balance of my time.</t>
   </si>
   <si>
@@ -121,9 +103,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Kohn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kohn. Is it on? Got it. OK.</t>
   </si>
   <si>
@@ -139,9 +118,6 @@
     <t xml:space="preserve">    Mr. Murphy. Thank you.    Ms. Hyde, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Hyde</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Hyde. Good morning, Chairman Murphy, Ranking Member DeGette, and members of the subcommittee. My name is Pamela Hyde and I am the Administrator of the Substance Abuse and Mental Health Services Administration.    In 2014, over \\3/4\\ of SAMHSA's mental health funding was targeted toward improving the lives of persons with serious mental illness, or SMI. Individuals with SMI in their families, like those I have met, served, and advocated for over 4 decades, are the reason we are, at SAMHSA, working so hard to coordinate critical Federal programs to maximize the impact on the ground for those who need it the most. For example, SAMHSA and other HHS agencies work with the U.S. Interagency Council on Homelessness, the Departments of Veterans Affairs and Housing and Urban Development, to prioritize the needs of veterans and individuals experiencing chronic homelessness; many of whom have serious mental illnesses. Because of these joint efforts, 25,000 fewer people experienced chronic homelessness in 2014 than in 2013, and the number of homeless veterans has declined 33 percent.    I also represent Secretary Burwell as co-chair of the President's Interagency Task Force on Military and Veterans Mental Health. Through this effort, SAMHSA is working with the Department of Defense, VA, and the White House to address the mental health needs of military families. SAMHSA also leads the Interdepartmental Federal Working Group on suicide prevention, and helps fund and support the Federal and private sector collaboration that developed, and is beginning to implement the Surgeon General's national strategy on suicide prevention.    In 2014, the National Suicide Prevention Lifeline, funded by SAMHSA, and coordinated with the VA, served over 1.3 million Americans.    SAMHSA's Children's Mental Health Initiative coordinates mental health, education, juvenile justice, and human services structures that serve young people with serious emotional disturbances. Evaluations of this program have demonstrated impressive results in improving functioning, reducing arrests, suicidal thoughts, and days spent in inpatient care, and increasing family satisfaction with services.    Along with the Assistant Secretary for Health, I co-chair the Secretary's Behavioral Health Coordinating Council, which includes a new subcommittee focused on the needs of persons with SMI, and other subcommittees that address issues affecting SMI individuals and their families across multiple programs.    SAMHSA also coordinates Federal efforts informally. For example, SAMHSA worked with the Departments of Labor and Education to develop and disseminate a toolkit about supported employment for persons with SMI. In 2014, SAMHSA implemented a new grant program to test how to help states take this evidence-based practice to scale.    In 2014, SAMHSA also implemented new congressional language requiring that at least 5 percent of each state's mental health block grant funds be used to provide treatment and services for individuals with first-episode serious mental illness. SAMHSA is coordinating with the National Institute of Mental Health to provide guidance and technical assistance to help states implement evidence-based interventions to prevent the disability often associated with early onset SMI.    Also new in 2014 is the President's Now is The Time plan, which grew out of the tragedy in Newtown, Connecticut, and received broad bipartisan support by Congress. This series of programs allows us to increase the behavioral health workforce, train and support school personnel, and assist youth and young adults, especially those with serious emotional disturbances, to be identified and receive the treatment they need for emerging mental health and substance use problems as they transition to adulthood. These new programs necessitate robust interdepartmental coordination with other HHS agencies. The Departments of Education and Justice, and state education and behavioral health entities, as well as students, families, and community responders.    And in collaboration with the Departments of Treasury and Labor, SAMHSA and other HHS agencies have coordinated efforts to help individuals with significant behavioral health needs enroll in newly available affordable care coverage, and to help plans and consumers know about their obligations and rights under National parity legislation.    Even though much has been accomplished, we recognize the need to do more. The President's 2016 budget proposes a new SAMHSA Crisis Services Program to bring together multiple state, Federal, and community funding streams, and service deliver infrastructures so that emergency rooms, inpatient residential and treatment facilities, and jail cells will not be the only options for SMI individuals in crisis and their families.    SAMHSA works every day to coordinate and collaborate within the Federal Government and across the country to assure evidence-based treatment is available and delivered so individuals with SMI and their families can live satisfying and productive lives. We appreciate Congress' continuing partnership in these efforts.    Thank you.</t>
   </si>
   <si>
@@ -502,9 +478,6 @@
     <t>412487</t>
   </si>
   <si>
-    <t>David B. McKinley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you, Mr. Chairman. And thank you for holding this hearing. I think that this is something that you have been championing for the 4 years I have been in Congress, and I really applaud you for the efforts of trying to get better attention on serious mental illness. So congratulations on continuing to move this.    But, Ms. Kohn, I have a question of you, if you could. You heard a lot of the testimony. I saw you studying those charts that showed the mortality rate dropping, and we have heard some folks here explain how they really are making progress. That is the spin of Washington.    So my question is, based on what you have heard, what you have studied, do you believe that HHS and SAMHSA have done everything they can to reduce the chance of duplication, and in particular, really supporting mental illness in this country? Do you think they are doing everything they can?</t>
   </si>
   <si>
@@ -709,9 +682,6 @@
     <t>412485</t>
   </si>
   <si>
-    <t>H. Morgan Griffith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Griffith. Thank you, Mr. Chairman. And I appreciate having 5 minutes, but I wish I had a lot more. I would like to get the information that Mrs. Blackburn asked for earlier in regard to the money as it flows to the state and local levels as well. So when you report to her, if you could make sure I get a copy of that, I would greatly appreciate it.    I am going to need some yes-or-no answers because I have to fly through this because of the time limitations that we do have. But GAO noted that SAMHSA officials did not initially include any of their suicide prevention programs among those that can support individuals with serious mental illness. Isn't that true, Ms. Hyde, yes or no?</t>
   </si>
   <si>
@@ -835,9 +805,6 @@
     <t>412539</t>
   </si>
   <si>
-    <t>Susan W. Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you, Mr. Chairman, and thank you for holding this hearing.    In August of last year, I held a mental health listing session in Hamilton County, just north of Indianapolis, Indiana, and pulled together advocacy groups, family groups, doctors, and luckily, head of our state HHS component FSSA as a psychiatrist, Dr. John Wernert, and he participated in this session. And we talked about the pressing issues of mental health in our state and in our country, and ways that Congress could respond. And I have to tell you, a theme of that was the fragmentation issue. And even now, as still a relatively new Member of Congress, I am amazed at the number of people with mental health issues contact our offices, and come to our events, including recently a young woman who brought to a public meeting stacks and stacks and file folders of her correspondence with different agencies, trying to seek help for her schizophrenia. And it broke my heart. And then when I read this GAO report about the fragmentation, and would just ask all of you to look once again at the chairman's chart, and I would ask you to take that back to SAMHSA, and I applaud GAO for putting together, or attempting to put together, the comprehensive inventory, but if healthy people in a discussion have a hard time getting through the bureaucracy, how do mentally ill people and seriously mentally ill people get help?    And so, Dr. Kohn, why was it such a challenge in GAO's opinion to identify all of these different programs? What happened?</t>
   </si>
   <si>
@@ -877,9 +844,6 @@
     <t>412211</t>
   </si>
   <si>
-    <t>John A. Yarmuth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Yarmuth. Thank you, Mr. Chairman. I thank the witnesses for their testimony.    Anybody who has been in this job for any period of time understands the extent to which mental illness impacts our various communities and the country as a whole. Tens of millions of people affected. And clearly, we have made progress. I was proud to have supported the Mental Health Parity Act that has made an enormous impact, and obviously embodying that in the Affordable Care Act with the expansion of Medicaid, in my state has made a remarkable difference. And, you know, I don't think any of us would disagree with the notion that coordination is important, and evaluation of programs is important. We also can't lose sight of the amount of resources that are committed to these kinds of activities. And I am a member of the Budget Committee and I have seen how budget cuts have affected many areas of our social safety net and our human services initiatives. Now we are down the return of sequestration in October of this year, and we had an experiment with it a couple of years ago.    Dr. Frank and Administrator Hyde, would you talk to us about the impact of sequestration potentially on the treatment of mental illness throughout the country, and what happened a couple of years ago, what impact, if any, there was and what the new potential cuts are and how they could impact the same kind of care?</t>
   </si>
   <si>
@@ -907,9 +871,6 @@
     <t>412568</t>
   </si>
   <si>
-    <t>Markwayne Mullin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mullin. Thank you, Mr. Chairman.    If you could, could you put that up for me? Ms. Hyde, do you recognize what this is here?</t>
   </si>
   <si>
@@ -1036,9 +997,6 @@
     <t>412221</t>
   </si>
   <si>
-    <t>Yvette D. Clarke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Clarke. Thank you, Mr. Chairman. And I thank our witnesses for sharing your expertise with us this morning.    My first question is to Dr. Frank. Unfortunately, many states have refused to expand Medicaid coverage under the Affordable Care Act, and according to the American Mental Health Counselors Association, nearly 3.7 million uninsured adults with serious mental health and substance abuse conditions will not be covered in states that failed to expand Medicaid. To me, that decision is astoundingly shortsighted.    Dr. Frank, why is Medicaid expansion so critical to this population?</t>
   </si>
   <si>
@@ -1078,9 +1036,6 @@
     <t>412563</t>
   </si>
   <si>
-    <t>Chris Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman.    If you could, Ms. Hyde, just kind of keep the questions as brief as you can because of the time. I am going to start with a fairly simple one. Could you give yourself a grade of 1 to 10 on how good a job you are doing?</t>
   </si>
   <si>
@@ -1238,9 +1193,6 @@
   </si>
   <si>
     <t>412555</t>
-  </si>
-  <si>
-    <t>Kevin Cramer</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Cramer. Thank you, Mr. Chairman, and thank you to the witnesses.    I just have one question for Ms. Hyde I was reading the HHS budget justification, and in your opening, I think you said something to the effect that--and maybe you could tell me what you said, what percentage of the SAMHSA budget was dedicated last year to SMI?</t>
@@ -1966,11 +1918,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1990,13 +1940,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2016,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2044,11 +1990,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2068,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2096,11 +2038,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2120,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2146,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2172,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2200,11 +2134,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2226,11 +2158,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2250,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2278,11 +2206,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2302,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2328,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2356,11 +2278,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2380,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
         <v>34</v>
-      </c>
-      <c r="G18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2408,11 +2326,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2432,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2460,11 +2374,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2484,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2512,11 +2422,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2536,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2564,11 +2470,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2588,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2616,11 +2518,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2640,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2668,11 +2566,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2692,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2720,11 +2614,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2744,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2772,11 +2662,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2796,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2824,11 +2710,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2848,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2876,11 +2758,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2900,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2928,11 +2806,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2952,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2980,11 +2854,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3004,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3030,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3058,11 +2926,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3082,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
-      </c>
-      <c r="G45" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3110,11 +2974,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3134,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3162,11 +3022,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3186,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3212,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3238,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3264,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3290,13 +3140,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3316,13 +3164,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3342,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3368,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3394,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3420,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3446,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3472,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3498,13 +3332,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3524,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
-      </c>
-      <c r="G62" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3550,13 +3380,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3576,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
-      </c>
-      <c r="G64" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3602,13 +3428,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3628,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3654,13 +3476,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3680,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>25</v>
-      </c>
-      <c r="G68" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3706,13 +3524,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3732,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
-      </c>
-      <c r="G70" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3758,13 +3572,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3784,13 +3596,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
-      </c>
-      <c r="G72" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3810,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3836,13 +3644,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
-      </c>
-      <c r="G74" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3862,13 +3668,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3888,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>25</v>
-      </c>
-      <c r="G76" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3914,13 +3716,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3940,13 +3740,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>25</v>
-      </c>
-      <c r="G78" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3966,13 +3764,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3992,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4018,13 +3812,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4044,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>25</v>
-      </c>
-      <c r="G82" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4070,13 +3860,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4096,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>25</v>
-      </c>
-      <c r="G84" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4122,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4148,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>25</v>
-      </c>
-      <c r="G86" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4174,13 +3956,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4200,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G88" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4226,13 +4004,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4254,11 +4030,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4278,13 +4052,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>25</v>
-      </c>
-      <c r="G91" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4306,11 +4078,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4330,13 +4100,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>25</v>
-      </c>
-      <c r="G93" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4358,11 +4126,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4382,13 +4148,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>25</v>
-      </c>
-      <c r="G95" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4410,11 +4174,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4434,13 +4196,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>25</v>
-      </c>
-      <c r="G97" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4462,11 +4222,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4486,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4512,13 +4268,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
-      </c>
-      <c r="G100" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4538,13 +4292,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4564,13 +4316,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>25</v>
-      </c>
-      <c r="G102" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4590,13 +4340,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4616,13 +4364,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>25</v>
-      </c>
-      <c r="G104" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4642,13 +4388,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4668,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>25</v>
-      </c>
-      <c r="G106" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4694,13 +4436,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4720,13 +4460,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>25</v>
-      </c>
-      <c r="G108" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4746,13 +4484,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4772,13 +4508,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>25</v>
-      </c>
-      <c r="G110" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4798,13 +4532,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4824,13 +4556,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>25</v>
-      </c>
-      <c r="G112" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4850,13 +4580,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4876,13 +4604,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>25</v>
-      </c>
-      <c r="G114" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4902,13 +4628,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4928,13 +4652,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G116" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4954,13 +4676,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>21</v>
-      </c>
-      <c r="G117" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4980,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>25</v>
-      </c>
-      <c r="G118" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5006,13 +4724,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5034,11 +4750,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5058,13 +4772,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>25</v>
-      </c>
-      <c r="G121" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5084,13 +4796,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
-      </c>
-      <c r="G122" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5110,13 +4820,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>25</v>
-      </c>
-      <c r="G123" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5136,13 +4844,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
-      </c>
-      <c r="G124" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5162,13 +4868,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>25</v>
-      </c>
-      <c r="G125" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5188,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
-      </c>
-      <c r="G126" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5214,13 +4916,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>25</v>
-      </c>
-      <c r="G127" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5240,13 +4940,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
-      </c>
-      <c r="G128" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5266,13 +4964,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>25</v>
-      </c>
-      <c r="G129" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5294,11 +4990,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5318,13 +5012,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
-      </c>
-      <c r="G131" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5346,11 +5038,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5370,13 +5060,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
-      </c>
-      <c r="G133" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5398,11 +5086,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5422,13 +5108,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
-      </c>
-      <c r="G135" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5450,11 +5134,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5474,13 +5156,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
-      </c>
-      <c r="G137" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5502,11 +5182,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5526,13 +5204,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>161</v>
-      </c>
-      <c r="G139" t="s">
-        <v>162</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5552,13 +5228,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
-      </c>
-      <c r="G140" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5578,13 +5252,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>161</v>
-      </c>
-      <c r="G141" t="s">
-        <v>162</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5604,13 +5276,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
-      </c>
-      <c r="G142" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5630,13 +5300,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>161</v>
-      </c>
-      <c r="G143" t="s">
-        <v>162</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5656,13 +5324,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
-      </c>
-      <c r="G144" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5682,13 +5348,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>161</v>
-      </c>
-      <c r="G145" t="s">
-        <v>162</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5708,13 +5372,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
-      </c>
-      <c r="G146" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5734,13 +5396,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>161</v>
-      </c>
-      <c r="G147" t="s">
+        <v>153</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
         <v>162</v>
-      </c>
-      <c r="H147" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5760,13 +5420,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
-      </c>
-      <c r="G148" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5786,13 +5444,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>161</v>
-      </c>
-      <c r="G149" t="s">
-        <v>162</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5812,13 +5468,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
-      </c>
-      <c r="G150" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5838,13 +5492,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>161</v>
-      </c>
-      <c r="G151" t="s">
-        <v>162</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5864,13 +5516,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
-      </c>
-      <c r="G152" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5890,13 +5540,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>161</v>
-      </c>
-      <c r="G153" t="s">
-        <v>162</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5916,13 +5564,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
-      </c>
-      <c r="G154" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5942,13 +5588,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>161</v>
-      </c>
-      <c r="G155" t="s">
-        <v>162</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5968,13 +5612,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
-      </c>
-      <c r="G156" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5994,13 +5636,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>161</v>
-      </c>
-      <c r="G157" t="s">
-        <v>162</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6020,13 +5660,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
-      </c>
-      <c r="G158" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6046,13 +5684,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>161</v>
-      </c>
-      <c r="G159" t="s">
-        <v>162</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6072,13 +5708,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
-      </c>
-      <c r="G160" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6098,13 +5732,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>161</v>
-      </c>
-      <c r="G161" t="s">
-        <v>162</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6124,13 +5756,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
-      </c>
-      <c r="G162" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6150,13 +5780,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>161</v>
-      </c>
-      <c r="G163" t="s">
-        <v>162</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6176,13 +5804,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
-      </c>
-      <c r="G164" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6202,13 +5828,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>161</v>
-      </c>
-      <c r="G165" t="s">
-        <v>162</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6228,13 +5852,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
-      </c>
-      <c r="G166" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6254,13 +5876,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>161</v>
-      </c>
-      <c r="G167" t="s">
-        <v>162</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6280,13 +5900,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
-      </c>
-      <c r="G168" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6306,13 +5924,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>161</v>
-      </c>
-      <c r="G169" t="s">
-        <v>162</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6332,13 +5948,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
-      </c>
-      <c r="G170" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6358,13 +5972,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>161</v>
-      </c>
-      <c r="G171" t="s">
-        <v>162</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6384,13 +5996,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
-      </c>
-      <c r="G172" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6410,13 +6020,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>161</v>
-      </c>
-      <c r="G173" t="s">
-        <v>162</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6436,13 +6044,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>25</v>
-      </c>
-      <c r="G174" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6462,13 +6068,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>161</v>
-      </c>
-      <c r="G175" t="s">
-        <v>162</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6488,13 +6092,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>25</v>
-      </c>
-      <c r="G176" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6514,13 +6116,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>161</v>
-      </c>
-      <c r="G177" t="s">
-        <v>162</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6540,13 +6140,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>25</v>
-      </c>
-      <c r="G178" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6566,13 +6164,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>161</v>
-      </c>
-      <c r="G179" t="s">
-        <v>162</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6592,13 +6188,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>25</v>
-      </c>
-      <c r="G180" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6618,13 +6212,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>161</v>
-      </c>
-      <c r="G181" t="s">
-        <v>162</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6644,13 +6236,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>25</v>
-      </c>
-      <c r="G182" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6670,13 +6260,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>161</v>
-      </c>
-      <c r="G183" t="s">
-        <v>162</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6698,11 +6286,9 @@
       <c r="F184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>12</v>
-      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6722,13 +6308,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>17</v>
-      </c>
-      <c r="G185" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6748,13 +6332,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>25</v>
-      </c>
-      <c r="G186" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6774,13 +6356,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>17</v>
-      </c>
-      <c r="G187" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6800,13 +6380,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>25</v>
-      </c>
-      <c r="G188" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6826,13 +6404,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>17</v>
-      </c>
-      <c r="G189" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6852,13 +6428,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>25</v>
-      </c>
-      <c r="G190" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6878,13 +6452,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>17</v>
-      </c>
-      <c r="G191" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6904,13 +6476,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>25</v>
-      </c>
-      <c r="G192" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6930,13 +6500,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>17</v>
-      </c>
-      <c r="G193" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6956,13 +6524,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
-      </c>
-      <c r="G194" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6982,13 +6548,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>17</v>
-      </c>
-      <c r="G195" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7008,13 +6572,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
-      </c>
-      <c r="G196" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7034,13 +6596,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>17</v>
-      </c>
-      <c r="G197" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7062,11 +6622,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>12</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7086,13 +6644,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>17</v>
-      </c>
-      <c r="G199" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7114,11 +6670,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>12</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7138,13 +6692,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>17</v>
-      </c>
-      <c r="G201" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7166,11 +6718,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>12</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7190,13 +6740,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>17</v>
-      </c>
-      <c r="G203" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7216,13 +6764,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>34</v>
-      </c>
-      <c r="G204" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7242,13 +6788,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>17</v>
-      </c>
-      <c r="G205" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7270,11 +6814,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>12</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7294,13 +6836,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>230</v>
-      </c>
-      <c r="G207" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7320,13 +6860,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
-      </c>
-      <c r="G208" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7346,13 +6884,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>230</v>
-      </c>
-      <c r="G209" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7372,13 +6908,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
-      </c>
-      <c r="G210" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7398,13 +6932,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>230</v>
-      </c>
-      <c r="G211" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7424,13 +6956,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
-      </c>
-      <c r="G212" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7450,13 +6980,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>230</v>
-      </c>
-      <c r="G213" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7476,13 +7004,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>34</v>
-      </c>
-      <c r="G214" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7502,13 +7028,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
+        <v>221</v>
+      </c>
+      <c r="G215" t="s"/>
+      <c r="H215" t="s">
         <v>230</v>
-      </c>
-      <c r="G215" t="s">
-        <v>231</v>
-      </c>
-      <c r="H215" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7528,13 +7052,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>34</v>
-      </c>
-      <c r="G216" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7554,13 +7076,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>230</v>
-      </c>
-      <c r="G217" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7580,13 +7100,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
-      </c>
-      <c r="G218" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7606,13 +7124,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>230</v>
-      </c>
-      <c r="G219" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7632,13 +7148,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>34</v>
-      </c>
-      <c r="G220" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7658,13 +7172,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>230</v>
-      </c>
-      <c r="G221" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7684,13 +7196,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>34</v>
-      </c>
-      <c r="G222" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7710,13 +7220,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>230</v>
-      </c>
-      <c r="G223" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7736,13 +7244,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>34</v>
-      </c>
-      <c r="G224" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7762,13 +7268,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>230</v>
-      </c>
-      <c r="G225" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7788,13 +7292,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>34</v>
-      </c>
-      <c r="G226" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7814,13 +7316,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>230</v>
-      </c>
-      <c r="G227" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7840,13 +7340,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>34</v>
-      </c>
-      <c r="G228" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7866,13 +7364,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>230</v>
-      </c>
-      <c r="G229" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7894,11 +7390,9 @@
       <c r="F230" t="s">
         <v>11</v>
       </c>
-      <c r="G230" t="s">
-        <v>12</v>
-      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7918,13 +7412,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>29</v>
-      </c>
-      <c r="G231" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7944,13 +7436,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>25</v>
-      </c>
-      <c r="G232" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7970,13 +7460,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>29</v>
-      </c>
-      <c r="G233" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7996,13 +7484,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>25</v>
-      </c>
-      <c r="G234" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8022,13 +7508,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>29</v>
-      </c>
-      <c r="G235" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8048,13 +7532,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>34</v>
-      </c>
-      <c r="G236" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8074,13 +7556,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
-      </c>
-      <c r="G237" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8100,13 +7580,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>25</v>
-      </c>
-      <c r="G238" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8126,13 +7604,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>29</v>
-      </c>
-      <c r="G239" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8152,13 +7628,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>34</v>
-      </c>
-      <c r="G240" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8178,13 +7652,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>29</v>
-      </c>
-      <c r="G241" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8204,13 +7676,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>34</v>
-      </c>
-      <c r="G242" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8230,13 +7700,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>29</v>
-      </c>
-      <c r="G243" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8256,13 +7724,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>34</v>
-      </c>
-      <c r="G244" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8282,13 +7748,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>29</v>
-      </c>
-      <c r="G245" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8310,11 +7774,9 @@
       <c r="F246" t="s">
         <v>11</v>
       </c>
-      <c r="G246" t="s">
-        <v>12</v>
-      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8334,13 +7796,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>272</v>
-      </c>
-      <c r="G247" t="s">
-        <v>273</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8360,13 +7820,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>34</v>
-      </c>
-      <c r="G248" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8386,13 +7844,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>272</v>
-      </c>
-      <c r="G249" t="s">
-        <v>273</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8412,13 +7868,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>34</v>
-      </c>
-      <c r="G250" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8438,13 +7892,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>272</v>
-      </c>
-      <c r="G251" t="s">
-        <v>273</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8464,13 +7916,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>34</v>
-      </c>
-      <c r="G252" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8490,13 +7940,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>272</v>
-      </c>
-      <c r="G253" t="s">
-        <v>273</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8516,13 +7964,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>34</v>
-      </c>
-      <c r="G254" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8542,13 +7988,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>272</v>
-      </c>
-      <c r="G255" t="s">
-        <v>273</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8568,13 +8012,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>25</v>
-      </c>
-      <c r="G256" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8594,13 +8036,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>272</v>
-      </c>
-      <c r="G257" t="s">
+        <v>262</v>
+      </c>
+      <c r="G257" t="s"/>
+      <c r="H257" t="s">
         <v>273</v>
-      </c>
-      <c r="H257" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8622,11 +8062,9 @@
       <c r="F258" t="s">
         <v>11</v>
       </c>
-      <c r="G258" t="s">
-        <v>12</v>
-      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8646,13 +8084,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>286</v>
-      </c>
-      <c r="G259" t="s">
-        <v>287</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8672,13 +8108,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>34</v>
-      </c>
-      <c r="G260" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8698,13 +8132,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>286</v>
-      </c>
-      <c r="G261" t="s">
-        <v>287</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8724,13 +8156,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>25</v>
-      </c>
-      <c r="G262" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8750,13 +8180,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>286</v>
-      </c>
-      <c r="G263" t="s">
-        <v>287</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8776,13 +8204,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>34</v>
-      </c>
-      <c r="G264" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8802,13 +8228,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>286</v>
-      </c>
-      <c r="G265" t="s">
-        <v>287</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8830,11 +8254,9 @@
       <c r="F266" t="s">
         <v>11</v>
       </c>
-      <c r="G266" t="s">
-        <v>12</v>
-      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8854,13 +8276,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>296</v>
-      </c>
-      <c r="G267" t="s">
-        <v>297</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8880,13 +8300,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>34</v>
-      </c>
-      <c r="G268" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8906,13 +8324,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>296</v>
-      </c>
-      <c r="G269" t="s">
-        <v>297</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8932,13 +8348,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>34</v>
-      </c>
-      <c r="G270" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8958,13 +8372,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>296</v>
-      </c>
-      <c r="G271" t="s">
-        <v>297</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8984,13 +8396,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>34</v>
-      </c>
-      <c r="G272" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9010,13 +8420,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>296</v>
-      </c>
-      <c r="G273" t="s">
-        <v>297</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9036,13 +8444,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>34</v>
-      </c>
-      <c r="G274" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9062,13 +8468,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>296</v>
-      </c>
-      <c r="G275" t="s">
-        <v>297</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9088,13 +8492,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>34</v>
-      </c>
-      <c r="G276" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9114,13 +8516,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>296</v>
-      </c>
-      <c r="G277" t="s">
-        <v>297</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9140,13 +8540,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>34</v>
-      </c>
-      <c r="G278" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9166,13 +8564,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
+        <v>284</v>
+      </c>
+      <c r="G279" t="s"/>
+      <c r="H279" t="s">
         <v>296</v>
-      </c>
-      <c r="G279" t="s">
-        <v>297</v>
-      </c>
-      <c r="H279" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9192,13 +8588,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>34</v>
-      </c>
-      <c r="G280" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9218,13 +8612,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>296</v>
-      </c>
-      <c r="G281" t="s">
-        <v>297</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9244,13 +8636,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>34</v>
-      </c>
-      <c r="G282" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9270,13 +8660,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>296</v>
-      </c>
-      <c r="G283" t="s">
-        <v>297</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9296,13 +8684,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>34</v>
-      </c>
-      <c r="G284" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9322,13 +8708,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>296</v>
-      </c>
-      <c r="G285" t="s">
-        <v>297</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9348,13 +8732,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>34</v>
-      </c>
-      <c r="G286" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9374,13 +8756,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>296</v>
-      </c>
-      <c r="G287" t="s">
-        <v>297</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9400,13 +8780,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>34</v>
-      </c>
-      <c r="G288" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9426,13 +8804,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>296</v>
-      </c>
-      <c r="G289" t="s">
-        <v>297</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9452,13 +8828,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>34</v>
-      </c>
-      <c r="G290" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9478,13 +8852,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>296</v>
-      </c>
-      <c r="G291" t="s">
-        <v>297</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9504,13 +8876,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>34</v>
-      </c>
-      <c r="G292" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9530,13 +8900,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>296</v>
-      </c>
-      <c r="G293" t="s">
-        <v>297</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9556,13 +8924,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>34</v>
-      </c>
-      <c r="G294" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9582,13 +8948,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>296</v>
-      </c>
-      <c r="G295" t="s">
-        <v>297</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9608,13 +8972,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>34</v>
-      </c>
-      <c r="G296" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9634,13 +8996,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>296</v>
-      </c>
-      <c r="G297" t="s">
-        <v>297</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9660,13 +9020,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>34</v>
-      </c>
-      <c r="G298" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9686,13 +9044,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>296</v>
-      </c>
-      <c r="G299" t="s">
-        <v>297</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9712,13 +9068,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>34</v>
-      </c>
-      <c r="G300" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9738,13 +9092,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>296</v>
-      </c>
-      <c r="G301" t="s">
-        <v>297</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9764,13 +9116,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>34</v>
-      </c>
-      <c r="G302" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9790,13 +9140,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>296</v>
-      </c>
-      <c r="G303" t="s">
-        <v>297</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9816,13 +9164,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>34</v>
-      </c>
-      <c r="G304" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9842,13 +9188,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>296</v>
-      </c>
-      <c r="G305" t="s">
-        <v>297</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9868,13 +9212,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>34</v>
-      </c>
-      <c r="G306" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9894,13 +9236,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>296</v>
-      </c>
-      <c r="G307" t="s">
-        <v>297</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9920,13 +9260,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>34</v>
-      </c>
-      <c r="G308" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9946,13 +9284,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>296</v>
-      </c>
-      <c r="G309" t="s">
-        <v>297</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9974,11 +9310,9 @@
       <c r="F310" t="s">
         <v>11</v>
       </c>
-      <c r="G310" t="s">
-        <v>12</v>
-      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9998,13 +9332,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>339</v>
-      </c>
-      <c r="G311" t="s">
-        <v>340</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10024,13 +9356,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>25</v>
-      </c>
-      <c r="G312" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10050,13 +9380,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>339</v>
-      </c>
-      <c r="G313" t="s">
-        <v>340</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10076,13 +9404,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>34</v>
-      </c>
-      <c r="G314" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10102,13 +9428,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>339</v>
-      </c>
-      <c r="G315" t="s">
-        <v>340</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10128,13 +9452,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>34</v>
-      </c>
-      <c r="G316" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10154,13 +9476,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>339</v>
-      </c>
-      <c r="G317" t="s">
-        <v>340</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10180,13 +9500,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>34</v>
-      </c>
-      <c r="G318" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10206,13 +9524,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>339</v>
-      </c>
-      <c r="G319" t="s">
-        <v>340</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10232,13 +9548,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>34</v>
-      </c>
-      <c r="G320" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10258,13 +9572,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>339</v>
-      </c>
-      <c r="G321" t="s">
-        <v>340</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10286,11 +9598,9 @@
       <c r="F322" t="s">
         <v>11</v>
       </c>
-      <c r="G322" t="s">
-        <v>12</v>
-      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10310,13 +9620,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>353</v>
-      </c>
-      <c r="G323" t="s">
-        <v>354</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10336,13 +9644,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>34</v>
-      </c>
-      <c r="G324" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10362,13 +9668,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>353</v>
-      </c>
-      <c r="G325" t="s">
-        <v>354</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10388,13 +9692,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>34</v>
-      </c>
-      <c r="G326" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10414,13 +9716,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>353</v>
-      </c>
-      <c r="G327" t="s">
-        <v>354</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10440,13 +9740,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>34</v>
-      </c>
-      <c r="G328" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10466,13 +9764,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>353</v>
-      </c>
-      <c r="G329" t="s">
-        <v>354</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10492,13 +9788,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>34</v>
-      </c>
-      <c r="G330" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10518,13 +9812,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>353</v>
-      </c>
-      <c r="G331" t="s">
-        <v>354</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10544,13 +9836,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>34</v>
-      </c>
-      <c r="G332" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10570,13 +9860,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>353</v>
-      </c>
-      <c r="G333" t="s">
-        <v>354</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10596,13 +9884,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>34</v>
-      </c>
-      <c r="G334" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10622,13 +9908,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>353</v>
-      </c>
-      <c r="G335" t="s">
-        <v>354</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10648,13 +9932,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>34</v>
-      </c>
-      <c r="G336" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10674,13 +9956,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>353</v>
-      </c>
-      <c r="G337" t="s">
+        <v>339</v>
+      </c>
+      <c r="G337" t="s"/>
+      <c r="H337" t="s">
         <v>354</v>
-      </c>
-      <c r="H337" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10700,13 +9980,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>34</v>
-      </c>
-      <c r="G338" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10726,13 +10004,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>353</v>
-      </c>
-      <c r="G339" t="s">
-        <v>354</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10752,13 +10028,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>34</v>
-      </c>
-      <c r="G340" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10778,13 +10052,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>353</v>
-      </c>
-      <c r="G341" t="s">
-        <v>354</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10804,13 +10076,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>34</v>
-      </c>
-      <c r="G342" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10830,13 +10100,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>353</v>
-      </c>
-      <c r="G343" t="s">
-        <v>354</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10856,13 +10124,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>34</v>
-      </c>
-      <c r="G344" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10882,13 +10148,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>353</v>
-      </c>
-      <c r="G345" t="s">
-        <v>354</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10908,13 +10172,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>34</v>
-      </c>
-      <c r="G346" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10934,13 +10196,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>353</v>
-      </c>
-      <c r="G347" t="s">
-        <v>354</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10960,13 +10220,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>34</v>
-      </c>
-      <c r="G348" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10986,13 +10244,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>353</v>
-      </c>
-      <c r="G349" t="s">
-        <v>354</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11012,13 +10268,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>34</v>
-      </c>
-      <c r="G350" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11038,13 +10292,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>353</v>
-      </c>
-      <c r="G351" t="s">
-        <v>354</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11064,13 +10316,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>34</v>
-      </c>
-      <c r="G352" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11090,13 +10340,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>353</v>
-      </c>
-      <c r="G353" t="s">
-        <v>354</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11116,13 +10364,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>34</v>
-      </c>
-      <c r="G354" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11142,13 +10388,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>353</v>
-      </c>
-      <c r="G355" t="s">
-        <v>354</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11170,11 +10414,9 @@
       <c r="F356" t="s">
         <v>11</v>
       </c>
-      <c r="G356" t="s">
-        <v>12</v>
-      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11194,13 +10436,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>34</v>
-      </c>
-      <c r="G357" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11220,13 +10460,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>14</v>
-      </c>
-      <c r="G358" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11248,11 +10486,9 @@
       <c r="F359" t="s">
         <v>11</v>
       </c>
-      <c r="G359" t="s">
-        <v>12</v>
-      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11272,13 +10508,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>14</v>
-      </c>
-      <c r="G360" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11300,11 +10534,9 @@
       <c r="F361" t="s">
         <v>11</v>
       </c>
-      <c r="G361" t="s">
-        <v>12</v>
-      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11324,13 +10556,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>14</v>
-      </c>
-      <c r="G362" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11352,11 +10582,9 @@
       <c r="F363" t="s">
         <v>11</v>
       </c>
-      <c r="G363" t="s">
-        <v>12</v>
-      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11376,13 +10604,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>353</v>
-      </c>
-      <c r="G364" t="s">
-        <v>354</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11402,13 +10628,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>34</v>
-      </c>
-      <c r="G365" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11428,13 +10652,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>353</v>
-      </c>
-      <c r="G366" t="s">
-        <v>354</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11456,11 +10678,9 @@
       <c r="F367" t="s">
         <v>11</v>
       </c>
-      <c r="G367" t="s">
-        <v>12</v>
-      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11480,13 +10700,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>14</v>
-      </c>
-      <c r="G368" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11508,11 +10726,9 @@
       <c r="F369" t="s">
         <v>11</v>
       </c>
-      <c r="G369" t="s">
-        <v>12</v>
-      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11532,13 +10748,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>14</v>
-      </c>
-      <c r="G370" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11560,11 +10774,9 @@
       <c r="F371" t="s">
         <v>11</v>
       </c>
-      <c r="G371" t="s">
-        <v>12</v>
-      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11584,13 +10796,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>14</v>
-      </c>
-      <c r="G372" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11612,11 +10822,9 @@
       <c r="F373" t="s">
         <v>11</v>
       </c>
-      <c r="G373" t="s">
-        <v>12</v>
-      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11636,13 +10844,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>14</v>
-      </c>
-      <c r="G374" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11662,13 +10868,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>353</v>
-      </c>
-      <c r="G375" t="s">
-        <v>354</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11690,11 +10894,9 @@
       <c r="F376" t="s">
         <v>11</v>
       </c>
-      <c r="G376" t="s">
-        <v>12</v>
-      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11714,13 +10916,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>407</v>
-      </c>
-      <c r="G377" t="s">
-        <v>408</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11740,13 +10940,11 @@
         <v>10</v>
       </c>
       <c r="F378" t="s">
-        <v>34</v>
-      </c>
-      <c r="G378" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11766,13 +10964,11 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>407</v>
-      </c>
-      <c r="G379" t="s">
-        <v>408</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11792,13 +10988,11 @@
         <v>10</v>
       </c>
       <c r="F380" t="s">
-        <v>34</v>
-      </c>
-      <c r="G380" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11818,13 +11012,11 @@
         <v>10</v>
       </c>
       <c r="F381" t="s">
-        <v>407</v>
-      </c>
-      <c r="G381" t="s">
-        <v>408</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11844,13 +11036,11 @@
         <v>10</v>
       </c>
       <c r="F382" t="s">
-        <v>34</v>
-      </c>
-      <c r="G382" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11870,13 +11060,11 @@
         <v>10</v>
       </c>
       <c r="F383" t="s">
-        <v>407</v>
-      </c>
-      <c r="G383" t="s">
-        <v>408</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11896,13 +11084,11 @@
         <v>10</v>
       </c>
       <c r="F384" t="s">
-        <v>34</v>
-      </c>
-      <c r="G384" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11922,13 +11108,11 @@
         <v>10</v>
       </c>
       <c r="F385" t="s">
-        <v>407</v>
-      </c>
-      <c r="G385" t="s">
-        <v>408</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11948,13 +11132,11 @@
         <v>10</v>
       </c>
       <c r="F386" t="s">
-        <v>34</v>
-      </c>
-      <c r="G386" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11976,11 +11158,9 @@
       <c r="F387" t="s">
         <v>11</v>
       </c>
-      <c r="G387" t="s">
-        <v>12</v>
-      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12000,13 +11180,11 @@
         <v>10</v>
       </c>
       <c r="F388" t="s">
-        <v>34</v>
-      </c>
-      <c r="G388" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12026,13 +11204,11 @@
         <v>10</v>
       </c>
       <c r="F389" t="s">
-        <v>407</v>
-      </c>
-      <c r="G389" t="s">
-        <v>408</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12052,13 +11228,11 @@
         <v>10</v>
       </c>
       <c r="F390" t="s">
-        <v>34</v>
-      </c>
-      <c r="G390" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12078,13 +11252,11 @@
         <v>10</v>
       </c>
       <c r="F391" t="s">
+        <v>392</v>
+      </c>
+      <c r="G391" t="s"/>
+      <c r="H391" t="s">
         <v>407</v>
-      </c>
-      <c r="G391" t="s">
-        <v>408</v>
-      </c>
-      <c r="H391" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12106,11 +11278,9 @@
       <c r="F392" t="s">
         <v>11</v>
       </c>
-      <c r="G392" t="s">
-        <v>12</v>
-      </c>
+      <c r="G392" t="s"/>
       <c r="H392" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12130,13 +11300,11 @@
         <v>10</v>
       </c>
       <c r="F393" t="s">
-        <v>34</v>
-      </c>
-      <c r="G393" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12158,11 +11326,9 @@
       <c r="F394" t="s">
         <v>11</v>
       </c>
-      <c r="G394" t="s">
-        <v>12</v>
-      </c>
+      <c r="G394" t="s"/>
       <c r="H394" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12182,13 +11348,11 @@
         <v>10</v>
       </c>
       <c r="F395" t="s">
-        <v>34</v>
-      </c>
-      <c r="G395" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12210,11 +11374,9 @@
       <c r="F396" t="s">
         <v>11</v>
       </c>
-      <c r="G396" t="s">
-        <v>12</v>
-      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12234,13 +11396,11 @@
         <v>10</v>
       </c>
       <c r="F397" t="s">
-        <v>34</v>
-      </c>
-      <c r="G397" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G397" t="s"/>
       <c r="H397" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12262,11 +11422,9 @@
       <c r="F398" t="s">
         <v>11</v>
       </c>
-      <c r="G398" t="s">
-        <v>12</v>
-      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12286,13 +11444,11 @@
         <v>10</v>
       </c>
       <c r="F399" t="s">
-        <v>34</v>
-      </c>
-      <c r="G399" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G399" t="s"/>
       <c r="H399" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12314,11 +11470,9 @@
       <c r="F400" t="s">
         <v>11</v>
       </c>
-      <c r="G400" t="s">
-        <v>12</v>
-      </c>
+      <c r="G400" t="s"/>
       <c r="H400" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12338,13 +11492,11 @@
         <v>10</v>
       </c>
       <c r="F401" t="s">
-        <v>34</v>
-      </c>
-      <c r="G401" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G401" t="s"/>
       <c r="H401" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12366,11 +11518,9 @@
       <c r="F402" t="s">
         <v>11</v>
       </c>
-      <c r="G402" t="s">
-        <v>12</v>
-      </c>
+      <c r="G402" t="s"/>
       <c r="H402" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12390,13 +11540,11 @@
         <v>10</v>
       </c>
       <c r="F403" t="s">
-        <v>14</v>
-      </c>
-      <c r="G403" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G403" t="s"/>
       <c r="H403" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12416,13 +11564,11 @@
         <v>10</v>
       </c>
       <c r="F404" t="s">
-        <v>34</v>
-      </c>
-      <c r="G404" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G404" t="s"/>
       <c r="H404" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12442,13 +11588,11 @@
         <v>10</v>
       </c>
       <c r="F405" t="s">
-        <v>14</v>
-      </c>
-      <c r="G405" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G405" t="s"/>
       <c r="H405" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12468,13 +11612,11 @@
         <v>10</v>
       </c>
       <c r="F406" t="s">
-        <v>34</v>
-      </c>
-      <c r="G406" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G406" t="s"/>
       <c r="H406" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12494,13 +11636,11 @@
         <v>10</v>
       </c>
       <c r="F407" t="s">
-        <v>14</v>
-      </c>
-      <c r="G407" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G407" t="s"/>
       <c r="H407" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12520,13 +11660,11 @@
         <v>10</v>
       </c>
       <c r="F408" t="s">
-        <v>34</v>
-      </c>
-      <c r="G408" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G408" t="s"/>
       <c r="H408" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12546,13 +11684,11 @@
         <v>10</v>
       </c>
       <c r="F409" t="s">
-        <v>14</v>
-      </c>
-      <c r="G409" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G409" t="s"/>
       <c r="H409" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12572,13 +11708,11 @@
         <v>10</v>
       </c>
       <c r="F410" t="s">
-        <v>34</v>
-      </c>
-      <c r="G410" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G410" t="s"/>
       <c r="H410" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12598,13 +11732,11 @@
         <v>10</v>
       </c>
       <c r="F411" t="s">
-        <v>14</v>
-      </c>
-      <c r="G411" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G411" t="s"/>
       <c r="H411" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12624,13 +11756,11 @@
         <v>10</v>
       </c>
       <c r="F412" t="s">
-        <v>34</v>
-      </c>
-      <c r="G412" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G412" t="s"/>
       <c r="H412" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12650,13 +11780,11 @@
         <v>10</v>
       </c>
       <c r="F413" t="s">
-        <v>14</v>
-      </c>
-      <c r="G413" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G413" t="s"/>
       <c r="H413" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12676,13 +11804,11 @@
         <v>10</v>
       </c>
       <c r="F414" t="s">
-        <v>34</v>
-      </c>
-      <c r="G414" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G414" t="s"/>
       <c r="H414" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12702,13 +11828,11 @@
         <v>10</v>
       </c>
       <c r="F415" t="s">
-        <v>14</v>
-      </c>
-      <c r="G415" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G415" t="s"/>
       <c r="H415" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12728,13 +11852,11 @@
         <v>10</v>
       </c>
       <c r="F416" t="s">
-        <v>34</v>
-      </c>
-      <c r="G416" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G416" t="s"/>
       <c r="H416" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12754,13 +11876,11 @@
         <v>10</v>
       </c>
       <c r="F417" t="s">
-        <v>14</v>
-      </c>
-      <c r="G417" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G417" t="s"/>
       <c r="H417" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12780,13 +11900,11 @@
         <v>10</v>
       </c>
       <c r="F418" t="s">
-        <v>34</v>
-      </c>
-      <c r="G418" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G418" t="s"/>
       <c r="H418" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12806,13 +11924,11 @@
         <v>10</v>
       </c>
       <c r="F419" t="s">
-        <v>14</v>
-      </c>
-      <c r="G419" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G419" t="s"/>
       <c r="H419" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12832,13 +11948,11 @@
         <v>10</v>
       </c>
       <c r="F420" t="s">
-        <v>34</v>
-      </c>
-      <c r="G420" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G420" t="s"/>
       <c r="H420" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12858,13 +11972,11 @@
         <v>10</v>
       </c>
       <c r="F421" t="s">
-        <v>14</v>
-      </c>
-      <c r="G421" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G421" t="s"/>
       <c r="H421" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12884,13 +11996,11 @@
         <v>10</v>
       </c>
       <c r="F422" t="s">
-        <v>34</v>
-      </c>
-      <c r="G422" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G422" t="s"/>
       <c r="H422" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12910,13 +12020,11 @@
         <v>10</v>
       </c>
       <c r="F423" t="s">
-        <v>14</v>
-      </c>
-      <c r="G423" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G423" t="s"/>
       <c r="H423" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -12938,11 +12046,9 @@
       <c r="F424" t="s">
         <v>11</v>
       </c>
-      <c r="G424" t="s">
-        <v>12</v>
-      </c>
+      <c r="G424" t="s"/>
       <c r="H424" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -12962,13 +12068,11 @@
         <v>10</v>
       </c>
       <c r="F425" t="s">
-        <v>230</v>
-      </c>
-      <c r="G425" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G425" t="s"/>
       <c r="H425" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -12988,13 +12092,11 @@
         <v>10</v>
       </c>
       <c r="F426" t="s">
-        <v>34</v>
-      </c>
-      <c r="G426" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G426" t="s"/>
       <c r="H426" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13014,13 +12116,11 @@
         <v>10</v>
       </c>
       <c r="F427" t="s">
-        <v>230</v>
-      </c>
-      <c r="G427" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G427" t="s"/>
       <c r="H427" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13040,13 +12140,11 @@
         <v>10</v>
       </c>
       <c r="F428" t="s">
-        <v>34</v>
-      </c>
-      <c r="G428" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G428" t="s"/>
       <c r="H428" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13066,13 +12164,11 @@
         <v>10</v>
       </c>
       <c r="F429" t="s">
-        <v>230</v>
-      </c>
-      <c r="G429" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G429" t="s"/>
       <c r="H429" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13092,13 +12188,11 @@
         <v>10</v>
       </c>
       <c r="F430" t="s">
-        <v>34</v>
-      </c>
-      <c r="G430" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G430" t="s"/>
       <c r="H430" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13118,13 +12212,11 @@
         <v>10</v>
       </c>
       <c r="F431" t="s">
-        <v>230</v>
-      </c>
-      <c r="G431" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G431" t="s"/>
       <c r="H431" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13144,13 +12236,11 @@
         <v>10</v>
       </c>
       <c r="F432" t="s">
-        <v>34</v>
-      </c>
-      <c r="G432" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G432" t="s"/>
       <c r="H432" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13170,13 +12260,11 @@
         <v>10</v>
       </c>
       <c r="F433" t="s">
-        <v>230</v>
-      </c>
-      <c r="G433" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G433" t="s"/>
       <c r="H433" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13196,13 +12284,11 @@
         <v>10</v>
       </c>
       <c r="F434" t="s">
-        <v>34</v>
-      </c>
-      <c r="G434" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G434" t="s"/>
       <c r="H434" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13222,13 +12308,11 @@
         <v>10</v>
       </c>
       <c r="F435" t="s">
-        <v>230</v>
-      </c>
-      <c r="G435" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G435" t="s"/>
       <c r="H435" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13248,13 +12332,11 @@
         <v>10</v>
       </c>
       <c r="F436" t="s">
-        <v>25</v>
-      </c>
-      <c r="G436" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G436" t="s"/>
       <c r="H436" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13274,13 +12356,11 @@
         <v>10</v>
       </c>
       <c r="F437" t="s">
-        <v>230</v>
-      </c>
-      <c r="G437" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G437" t="s"/>
       <c r="H437" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13300,13 +12380,11 @@
         <v>10</v>
       </c>
       <c r="F438" t="s">
-        <v>25</v>
-      </c>
-      <c r="G438" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G438" t="s"/>
       <c r="H438" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13326,13 +12404,11 @@
         <v>10</v>
       </c>
       <c r="F439" t="s">
-        <v>230</v>
-      </c>
-      <c r="G439" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G439" t="s"/>
       <c r="H439" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13352,13 +12428,11 @@
         <v>10</v>
       </c>
       <c r="F440" t="s">
-        <v>25</v>
-      </c>
-      <c r="G440" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G440" t="s"/>
       <c r="H440" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13378,13 +12452,11 @@
         <v>10</v>
       </c>
       <c r="F441" t="s">
-        <v>230</v>
-      </c>
-      <c r="G441" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G441" t="s"/>
       <c r="H441" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13404,13 +12476,11 @@
         <v>10</v>
       </c>
       <c r="F442" t="s">
-        <v>25</v>
-      </c>
-      <c r="G442" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G442" t="s"/>
       <c r="H442" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13432,11 +12502,9 @@
       <c r="F443" t="s">
         <v>11</v>
       </c>
-      <c r="G443" t="s">
-        <v>12</v>
-      </c>
+      <c r="G443" t="s"/>
       <c r="H443" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13456,13 +12524,11 @@
         <v>10</v>
       </c>
       <c r="F444" t="s">
-        <v>34</v>
-      </c>
-      <c r="G444" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G444" t="s"/>
       <c r="H444" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13484,11 +12550,9 @@
       <c r="F445" t="s">
         <v>11</v>
       </c>
-      <c r="G445" t="s">
-        <v>12</v>
-      </c>
+      <c r="G445" t="s"/>
       <c r="H445" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13508,13 +12572,11 @@
         <v>10</v>
       </c>
       <c r="F446" t="s">
-        <v>25</v>
-      </c>
-      <c r="G446" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G446" t="s"/>
       <c r="H446" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13536,11 +12598,9 @@
       <c r="F447" t="s">
         <v>11</v>
       </c>
-      <c r="G447" t="s">
-        <v>12</v>
-      </c>
+      <c r="G447" t="s"/>
       <c r="H447" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13560,13 +12620,11 @@
         <v>10</v>
       </c>
       <c r="F448" t="s">
-        <v>25</v>
-      </c>
-      <c r="G448" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G448" t="s"/>
       <c r="H448" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13588,11 +12646,9 @@
       <c r="F449" t="s">
         <v>11</v>
       </c>
-      <c r="G449" t="s">
-        <v>12</v>
-      </c>
+      <c r="G449" t="s"/>
       <c r="H449" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13612,13 +12668,11 @@
         <v>10</v>
       </c>
       <c r="F450" t="s">
-        <v>25</v>
-      </c>
-      <c r="G450" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G450" t="s"/>
       <c r="H450" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13640,11 +12694,9 @@
       <c r="F451" t="s">
         <v>11</v>
       </c>
-      <c r="G451" t="s">
-        <v>12</v>
-      </c>
+      <c r="G451" t="s"/>
       <c r="H451" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13664,13 +12716,11 @@
         <v>10</v>
       </c>
       <c r="F452" t="s">
-        <v>25</v>
-      </c>
-      <c r="G452" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G452" t="s"/>
       <c r="H452" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13692,11 +12742,9 @@
       <c r="F453" t="s">
         <v>11</v>
       </c>
-      <c r="G453" t="s">
-        <v>12</v>
-      </c>
+      <c r="G453" t="s"/>
       <c r="H453" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13716,13 +12764,11 @@
         <v>10</v>
       </c>
       <c r="F454" t="s">
-        <v>25</v>
-      </c>
-      <c r="G454" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G454" t="s"/>
       <c r="H454" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13744,11 +12790,9 @@
       <c r="F455" t="s">
         <v>11</v>
       </c>
-      <c r="G455" t="s">
-        <v>12</v>
-      </c>
+      <c r="G455" t="s"/>
       <c r="H455" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13768,13 +12812,11 @@
         <v>10</v>
       </c>
       <c r="F456" t="s">
-        <v>25</v>
-      </c>
-      <c r="G456" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G456" t="s"/>
       <c r="H456" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13796,11 +12838,9 @@
       <c r="F457" t="s">
         <v>11</v>
       </c>
-      <c r="G457" t="s">
-        <v>12</v>
-      </c>
+      <c r="G457" t="s"/>
       <c r="H457" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13820,13 +12860,11 @@
         <v>10</v>
       </c>
       <c r="F458" t="s">
-        <v>25</v>
-      </c>
-      <c r="G458" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G458" t="s"/>
       <c r="H458" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -13848,11 +12886,9 @@
       <c r="F459" t="s">
         <v>11</v>
       </c>
-      <c r="G459" t="s">
-        <v>12</v>
-      </c>
+      <c r="G459" t="s"/>
       <c r="H459" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -13872,13 +12908,11 @@
         <v>10</v>
       </c>
       <c r="F460" t="s">
-        <v>25</v>
-      </c>
-      <c r="G460" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G460" t="s"/>
       <c r="H460" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -13900,11 +12934,9 @@
       <c r="F461" t="s">
         <v>11</v>
       </c>
-      <c r="G461" t="s">
-        <v>12</v>
-      </c>
+      <c r="G461" t="s"/>
       <c r="H461" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -13924,13 +12956,11 @@
         <v>10</v>
       </c>
       <c r="F462" t="s">
-        <v>34</v>
-      </c>
-      <c r="G462" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G462" t="s"/>
       <c r="H462" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -13952,11 +12982,9 @@
       <c r="F463" t="s">
         <v>11</v>
       </c>
-      <c r="G463" t="s">
-        <v>12</v>
-      </c>
+      <c r="G463" t="s"/>
       <c r="H463" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -13976,13 +13004,11 @@
         <v>10</v>
       </c>
       <c r="F464" t="s">
-        <v>34</v>
-      </c>
-      <c r="G464" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G464" t="s"/>
       <c r="H464" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14004,11 +13030,9 @@
       <c r="F465" t="s">
         <v>11</v>
       </c>
-      <c r="G465" t="s">
-        <v>12</v>
-      </c>
+      <c r="G465" t="s"/>
       <c r="H465" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14028,13 +13052,11 @@
         <v>10</v>
       </c>
       <c r="F466" t="s">
-        <v>34</v>
-      </c>
-      <c r="G466" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G466" t="s"/>
       <c r="H466" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14056,11 +13078,9 @@
       <c r="F467" t="s">
         <v>11</v>
       </c>
-      <c r="G467" t="s">
-        <v>12</v>
-      </c>
+      <c r="G467" t="s"/>
       <c r="H467" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14080,13 +13100,11 @@
         <v>10</v>
       </c>
       <c r="F468" t="s">
-        <v>34</v>
-      </c>
-      <c r="G468" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G468" t="s"/>
       <c r="H468" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14108,11 +13126,9 @@
       <c r="F469" t="s">
         <v>11</v>
       </c>
-      <c r="G469" t="s">
-        <v>12</v>
-      </c>
+      <c r="G469" t="s"/>
       <c r="H469" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14132,13 +13148,11 @@
         <v>10</v>
       </c>
       <c r="F470" t="s">
-        <v>14</v>
-      </c>
-      <c r="G470" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G470" t="s"/>
       <c r="H470" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14160,11 +13174,9 @@
       <c r="F471" t="s">
         <v>11</v>
       </c>
-      <c r="G471" t="s">
-        <v>12</v>
-      </c>
+      <c r="G471" t="s"/>
       <c r="H471" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14184,13 +13196,11 @@
         <v>10</v>
       </c>
       <c r="F472" t="s">
-        <v>14</v>
-      </c>
-      <c r="G472" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G472" t="s"/>
       <c r="H472" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14212,11 +13222,9 @@
       <c r="F473" t="s">
         <v>11</v>
       </c>
-      <c r="G473" t="s">
-        <v>12</v>
-      </c>
+      <c r="G473" t="s"/>
       <c r="H473" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14236,13 +13244,11 @@
         <v>10</v>
       </c>
       <c r="F474" t="s">
-        <v>14</v>
-      </c>
-      <c r="G474" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G474" t="s"/>
       <c r="H474" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14264,11 +13270,9 @@
       <c r="F475" t="s">
         <v>11</v>
       </c>
-      <c r="G475" t="s">
-        <v>12</v>
-      </c>
+      <c r="G475" t="s"/>
       <c r="H475" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14288,13 +13292,11 @@
         <v>10</v>
       </c>
       <c r="F476" t="s">
-        <v>25</v>
-      </c>
-      <c r="G476" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G476" t="s"/>
       <c r="H476" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14316,11 +13318,9 @@
       <c r="F477" t="s">
         <v>11</v>
       </c>
-      <c r="G477" t="s">
-        <v>12</v>
-      </c>
+      <c r="G477" t="s"/>
       <c r="H477" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14340,13 +13340,11 @@
         <v>10</v>
       </c>
       <c r="F478" t="s">
-        <v>25</v>
-      </c>
-      <c r="G478" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G478" t="s"/>
       <c r="H478" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14368,11 +13366,9 @@
       <c r="F479" t="s">
         <v>11</v>
       </c>
-      <c r="G479" t="s">
-        <v>12</v>
-      </c>
+      <c r="G479" t="s"/>
       <c r="H479" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14392,13 +13388,11 @@
         <v>10</v>
       </c>
       <c r="F480" t="s">
-        <v>25</v>
-      </c>
-      <c r="G480" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G480" t="s"/>
       <c r="H480" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14420,11 +13414,9 @@
       <c r="F481" t="s">
         <v>11</v>
       </c>
-      <c r="G481" t="s">
-        <v>12</v>
-      </c>
+      <c r="G481" t="s"/>
       <c r="H481" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14444,13 +13436,11 @@
         <v>10</v>
       </c>
       <c r="F482" t="s">
-        <v>25</v>
-      </c>
-      <c r="G482" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G482" t="s"/>
       <c r="H482" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14472,11 +13462,9 @@
       <c r="F483" t="s">
         <v>11</v>
       </c>
-      <c r="G483" t="s">
-        <v>12</v>
-      </c>
+      <c r="G483" t="s"/>
       <c r="H483" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14496,13 +13484,11 @@
         <v>10</v>
       </c>
       <c r="F484" t="s">
-        <v>25</v>
-      </c>
-      <c r="G484" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G484" t="s"/>
       <c r="H484" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14524,11 +13510,9 @@
       <c r="F485" t="s">
         <v>11</v>
       </c>
-      <c r="G485" t="s">
-        <v>12</v>
-      </c>
+      <c r="G485" t="s"/>
       <c r="H485" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14548,13 +13532,11 @@
         <v>10</v>
       </c>
       <c r="F486" t="s">
-        <v>25</v>
-      </c>
-      <c r="G486" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G486" t="s"/>
       <c r="H486" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14576,11 +13558,9 @@
       <c r="F487" t="s">
         <v>11</v>
       </c>
-      <c r="G487" t="s">
-        <v>12</v>
-      </c>
+      <c r="G487" t="s"/>
       <c r="H487" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14600,13 +13580,11 @@
         <v>10</v>
       </c>
       <c r="F488" t="s">
-        <v>25</v>
-      </c>
-      <c r="G488" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G488" t="s"/>
       <c r="H488" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14628,11 +13606,9 @@
       <c r="F489" t="s">
         <v>11</v>
       </c>
-      <c r="G489" t="s">
-        <v>12</v>
-      </c>
+      <c r="G489" t="s"/>
       <c r="H489" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14652,13 +13628,11 @@
         <v>10</v>
       </c>
       <c r="F490" t="s">
-        <v>25</v>
-      </c>
-      <c r="G490" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G490" t="s"/>
       <c r="H490" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14680,11 +13654,9 @@
       <c r="F491" t="s">
         <v>11</v>
       </c>
-      <c r="G491" t="s">
-        <v>12</v>
-      </c>
+      <c r="G491" t="s"/>
       <c r="H491" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
